--- a/Account.xlsx
+++ b/Account.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Stt</t>
   </si>
@@ -26,25 +26,52 @@
     <t>Password</t>
   </si>
   <si>
-    <t>afqaf@gaoak.com</t>
+    <t>tranquan@gmail.com</t>
+  </si>
+  <si>
+    <t>xomchua12</t>
+  </si>
+  <si>
+    <t>Quan.123</t>
+  </si>
+  <si>
+    <t>quantran@gmail.com</t>
+  </si>
+  <si>
+    <t>xomchu123</t>
+  </si>
+  <si>
+    <t>quan123@gmail.com</t>
+  </si>
+  <si>
+    <t>xomchu12</t>
+  </si>
+  <si>
+    <t>tranquan1234@gmail.com</t>
+  </si>
+  <si>
+    <t>xomchua12345</t>
+  </si>
+  <si>
+    <t>Quan.1234</t>
+  </si>
+  <si>
+    <t>tranquan1223@gmail.com</t>
+  </si>
+  <si>
+    <t>xomchua123456</t>
+  </si>
+  <si>
+    <t>TranQuan123@gmail.com</t>
+  </si>
+  <si>
+    <t>xomchua1234567</t>
+  </si>
+  <si>
+    <t>tranquan123@gmail.com</t>
   </si>
   <si>
     <t>xomchua1234</t>
-  </si>
-  <si>
-    <t>Quan.123</t>
-  </si>
-  <si>
-    <t>xomc@gmail.com</t>
-  </si>
-  <si>
-    <t>xomchu123</t>
-  </si>
-  <si>
-    <t>xdsof@gmail.com</t>
-  </si>
-  <si>
-    <t>xomchu12</t>
   </si>
 </sst>
 </file>
@@ -89,7 +116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -151,6 +178,62 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
